--- a/design/stim_crit.xlsx
+++ b/design/stim_crit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanconway/Research/ce_rating/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93495821-9378-2C48-8627-A6708E8F5692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A4E7C3-F364-5841-AD8A-A46B6C64FF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="500" windowWidth="24640" windowHeight="15100" xr2:uid="{83BDC93F-3B75-2E41-8B80-1829027D4291}"/>
+    <workbookView xWindow="4160" yWindow="500" windowWidth="24640" windowHeight="15100" xr2:uid="{83BDC93F-3B75-2E41-8B80-1829027D4291}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="12">
   <si>
     <t>t_high</t>
   </si>
@@ -44,12 +44,6 @@
     <t>option</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -62,10 +56,22 @@
     <t>effect</t>
   </si>
   <si>
-    <t>repulsion</t>
-  </si>
-  <si>
-    <t>attraction</t>
+    <t>repulsion_1</t>
+  </si>
+  <si>
+    <t>repulsion_2</t>
+  </si>
+  <si>
+    <t>attraction_1</t>
+  </si>
+  <si>
+    <t>attraction_2</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
   </si>
 </sst>
 </file>
@@ -114,10 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D09608-67B5-B54A-8956-53E291167A46}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,21 +473,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -490,16 +495,16 @@
       <c r="D2">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>90</v>
@@ -507,16 +512,16 @@
       <c r="D3">
         <v>40</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -524,16 +529,16 @@
       <c r="D4">
         <v>25</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5">
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -541,16 +546,16 @@
       <c r="D5">
         <v>100</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
+      <c r="E5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
       </c>
       <c r="C6">
         <v>40</v>
@@ -558,16 +563,16 @@
       <c r="D6">
         <v>90</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
+      <c r="E6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
+      <c r="A7">
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -575,16 +580,16 @@
       <c r="D7">
         <v>100</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>2</v>
+      <c r="A8">
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>60</v>
@@ -592,16 +597,16 @@
       <c r="D8">
         <v>50</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
+      <c r="E8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>2</v>
+      <c r="A9">
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -609,16 +614,16 @@
       <c r="D9">
         <v>60</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
+      <c r="E9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>2</v>
+      <c r="A10">
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>60</v>
@@ -626,16 +631,16 @@
       <c r="D10">
         <v>45</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>9</v>
+      <c r="E10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>3</v>
+      <c r="A11">
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -643,16 +648,16 @@
       <c r="D11">
         <v>60</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
+      <c r="E11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
       </c>
       <c r="C12">
         <v>60</v>
@@ -660,16 +665,16 @@
       <c r="D12">
         <v>50</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>9</v>
+      <c r="E12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>3</v>
+      <c r="A13">
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>45</v>
@@ -677,15 +682,215 @@
       <c r="D13">
         <v>60</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>90</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G19" s="1"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
